--- a/Table/Table_xls/x洗练效果配置.xlsx
+++ b/Table/Table_xls/x洗练效果配置.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table_xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1366E3-5B96-4EFE-AAD0-8B56A132CB30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 战斗中首回合附加怒气</t>
         </r>
       </text>
@@ -44,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -704,16 +701,18 @@
   <si>
     <t>被治疗暴击</t>
   </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,27 +732,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -792,9 +1109,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,19 +1385,58 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1099,1733 +1697,1734 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2833,16 +3432,16 @@
         <v>1010</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2850,50 +3449,50 @@
         <v>1020</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2901,16 +3500,16 @@
         <v>2150</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2918,16 +3517,16 @@
         <v>2160</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2935,16 +3534,16 @@
         <v>2170</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2952,19 +3551,19 @@
         <v>2180</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>2000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Table/Table_xls/x洗练效果配置.xlsx
+++ b/Table/Table_xls/x洗练效果配置.xlsx
@@ -707,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -733,74 +733,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -808,7 +740,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,9 +762,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,31 +853,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,7 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +921,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,43 +1035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,115 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,54 +1110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1168,21 +1120,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1207,6 +1144,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1215,10 +1215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,133 +1227,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1701,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E109"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Table/Table_xls/x洗练效果配置.xlsx
+++ b/Table/Table_xls/x洗练效果配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 战斗中首回合附加怒气</t>
         </r>
       </text>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -709,10 +708,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,60 +731,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,6 +755,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -815,19 +792,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -846,23 +815,29 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -875,6 +850,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -885,13 +889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,19 +931,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +985,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +1015,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,85 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,19 +1069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,6 +1114,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1128,18 +1156,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1148,8 +1165,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,41 +1201,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,10 +1219,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,133 +1231,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,6 +1441,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1692,20 +1701,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1735,7 +1743,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1752,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1769,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1786,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1803,7 +1811,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1820,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1837,7 +1845,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1854,7 +1862,7 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1871,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1888,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1905,7 +1913,7 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1922,7 +1930,7 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1939,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1956,7 +1964,7 @@
         <v>32</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1973,7 +1981,7 @@
         <v>34</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1990,7 +1998,7 @@
         <v>36</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -2007,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -2024,7 +2032,7 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -2041,7 +2049,7 @@
         <v>42</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -2058,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -2075,7 +2083,7 @@
         <v>46</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -2092,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -2109,7 +2117,7 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -2126,7 +2134,7 @@
         <v>52</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -2143,7 +2151,7 @@
         <v>54</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -2160,7 +2168,7 @@
         <v>56</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -2177,7 +2185,7 @@
         <v>58</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2194,7 +2202,7 @@
         <v>60</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -2211,7 +2219,7 @@
         <v>62</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E30">
         <v>10</v>
@@ -2228,7 +2236,7 @@
         <v>64</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -2245,7 +2253,7 @@
         <v>66</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2262,7 +2270,7 @@
         <v>68</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -2279,7 +2287,7 @@
         <v>70</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2296,7 +2304,7 @@
         <v>72</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -2313,7 +2321,7 @@
         <v>74</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -2330,7 +2338,7 @@
         <v>76</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -2347,7 +2355,7 @@
         <v>78</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -2364,7 +2372,7 @@
         <v>80</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -2381,7 +2389,7 @@
         <v>82</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -2398,7 +2406,7 @@
         <v>84</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -2415,7 +2423,7 @@
         <v>86</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2432,7 +2440,7 @@
         <v>88</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E43">
         <v>10</v>
@@ -2449,7 +2457,7 @@
         <v>90</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -2466,7 +2474,7 @@
         <v>92</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -2483,7 +2491,7 @@
         <v>94</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -2500,7 +2508,7 @@
         <v>96</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -2517,7 +2525,7 @@
         <v>98</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -2534,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -2551,7 +2559,7 @@
         <v>102</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -2568,7 +2576,7 @@
         <v>104</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -2585,7 +2593,7 @@
         <v>106</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -2602,7 +2610,7 @@
         <v>108</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -2619,7 +2627,7 @@
         <v>110</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -2636,7 +2644,7 @@
         <v>112</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E55">
         <v>10</v>
@@ -2653,7 +2661,7 @@
         <v>114</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E56">
         <v>10</v>
@@ -2670,7 +2678,7 @@
         <v>116</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E57">
         <v>10</v>
@@ -2687,7 +2695,7 @@
         <v>118</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E58">
         <v>10</v>
@@ -2704,7 +2712,7 @@
         <v>120</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E59">
         <v>10</v>
@@ -2721,7 +2729,7 @@
         <v>122</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -2738,7 +2746,7 @@
         <v>124</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -2755,7 +2763,7 @@
         <v>126</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -2772,7 +2780,7 @@
         <v>128</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E63">
         <v>10</v>
@@ -2789,7 +2797,7 @@
         <v>130</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -2806,7 +2814,7 @@
         <v>132</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -2823,7 +2831,7 @@
         <v>134</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E66">
         <v>10</v>
@@ -2840,7 +2848,7 @@
         <v>136</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -2857,7 +2865,7 @@
         <v>138</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -2874,7 +2882,7 @@
         <v>140</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -2891,7 +2899,7 @@
         <v>142</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E70">
         <v>10</v>
@@ -2908,7 +2916,7 @@
         <v>144</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E71">
         <v>10</v>
@@ -2925,7 +2933,7 @@
         <v>146</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -2942,7 +2950,7 @@
         <v>148</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -2959,7 +2967,7 @@
         <v>150</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E74">
         <v>10</v>
@@ -2976,7 +2984,7 @@
         <v>152</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E75">
         <v>10</v>
@@ -2993,7 +3001,7 @@
         <v>154</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E76">
         <v>10</v>
@@ -3010,7 +3018,7 @@
         <v>156</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E77">
         <v>10</v>
@@ -3027,7 +3035,7 @@
         <v>158</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E78">
         <v>10</v>
@@ -3044,7 +3052,7 @@
         <v>160</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E79">
         <v>10</v>
@@ -3061,7 +3069,7 @@
         <v>162</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E80">
         <v>10</v>
@@ -3078,7 +3086,7 @@
         <v>164</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E81">
         <v>10</v>
@@ -3095,7 +3103,7 @@
         <v>166</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3112,7 +3120,7 @@
         <v>168</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E83">
         <v>10</v>
@@ -3129,7 +3137,7 @@
         <v>170</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -3146,7 +3154,7 @@
         <v>172</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E85">
         <v>10</v>
@@ -3163,7 +3171,7 @@
         <v>174</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E86">
         <v>10</v>
@@ -3180,7 +3188,7 @@
         <v>176</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -3197,7 +3205,7 @@
         <v>178</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E88">
         <v>10</v>
@@ -3214,7 +3222,7 @@
         <v>180</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E89">
         <v>10</v>
@@ -3231,7 +3239,7 @@
         <v>182</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E90">
         <v>10</v>
@@ -3248,7 +3256,7 @@
         <v>184</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -3265,7 +3273,7 @@
         <v>186</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -3282,7 +3290,7 @@
         <v>188</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E93">
         <v>10</v>
@@ -3299,7 +3307,7 @@
         <v>190</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E94">
         <v>10</v>
@@ -3316,7 +3324,7 @@
         <v>192</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -3333,7 +3341,7 @@
         <v>194</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -3350,7 +3358,7 @@
         <v>196</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E97">
         <v>10</v>
@@ -3367,7 +3375,7 @@
         <v>198</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E98">
         <v>10</v>
@@ -3384,7 +3392,7 @@
         <v>200</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E99">
         <v>10</v>
@@ -3401,7 +3409,7 @@
         <v>202</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E100">
         <v>10</v>
@@ -3418,7 +3426,7 @@
         <v>204</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E101">
         <v>10</v>
@@ -3435,7 +3443,7 @@
         <v>205</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -3452,7 +3460,7 @@
         <v>206</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E103">
         <v>10</v>
@@ -3469,7 +3477,7 @@
         <v>208</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E104">
         <v>10</v>
@@ -3486,7 +3494,7 @@
         <v>210</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E105">
         <v>10</v>
@@ -3503,7 +3511,7 @@
         <v>211</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E106">
         <v>10</v>
@@ -3520,7 +3528,7 @@
         <v>212</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3537,7 +3545,7 @@
         <v>213</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E108">
         <v>10</v>
@@ -3554,7 +3562,7 @@
         <v>214</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E109">
         <v>10</v>

--- a/Table/Table_xls/x洗练效果配置.xlsx
+++ b/Table/Table_xls/x洗练效果配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -700,18 +700,36 @@
   <si>
     <t>被治疗暴击</t>
   </si>
+  <si>
+    <t>宠物攻击资质</t>
+  </si>
+  <si>
+    <t>宠物防御资质</t>
+  </si>
+  <si>
+    <t>宠物速度资质</t>
+  </si>
+  <si>
+    <t>宠物体力资质</t>
+  </si>
+  <si>
+    <t>宠物法力资质</t>
+  </si>
+  <si>
+    <t>宠物成长资质</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,25 +749,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,8 +770,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,14 +780,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -808,7 +802,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,15 +816,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,6 +856,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -861,23 +872,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -889,7 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,31 +914,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,97 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +956,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1028,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,23 +1145,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,30 +1156,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,6 +1177,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1211,6 +1194,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1219,10 +1232,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,137 +1244,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +1401,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1707,13 +1723,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3565,6 +3581,108 @@
         <v>-3</v>
       </c>
       <c r="E109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="12">
+        <v>1440</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D110">
+        <v>-3</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="12">
+        <v>1450</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111">
+        <v>-3</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="14">
+        <v>1480</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D112">
+        <v>-3</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="14">
+        <v>1460</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113">
+        <v>-3</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="14">
+        <v>1470</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114">
+        <v>-3</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115">
+        <v>-3</v>
+      </c>
+      <c r="E115">
         <v>10</v>
       </c>
     </row>
